--- a/Doc/RulesDiff.xlsx
+++ b/Doc/RulesDiff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\UnrealCppLint\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB79973-90B1-4739-BE1D-60CDE587051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3A5E1-15CC-4732-AF40-45976D1F32D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>

--- a/Doc/RulesDiff.xlsx
+++ b/Doc/RulesDiff.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\UnrealCppLint\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WXDDevelopment\Tools\UnrealCppLint\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3A5E1-15CC-4732-AF40-45976D1F32D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A7B27-4F5C-4C05-BDC2-55E307489046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Default" sheetId="1" r:id="rId1"/>
+    <sheet name="changedlog" sheetId="2" r:id="rId1"/>
+    <sheet name="Default" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>Unreal Coding Standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Google Style Guide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpplint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,10 +263,6 @@
   </si>
   <si>
     <t>大括号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定在单语句块中使用大括号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,12 +455,557 @@
     <t>延用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cpplint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(简单描述，不细节描述规则)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用制表符缩进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO @wxd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有考虑无制表符对齐情况。开发中若存在应按特例处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左大括号不单行
+else 与 if 的右括号同行
+括号内部的 判断、循环单行
+左大括号左侧跟一个空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测制表符缩进
+检测 1、3 空格情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大括号新起一行
+控制语句均需要单起一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑检测，因为是注释语句规范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if for while else 单行语句均需要大括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rider 在 Slate、注册时很多的格式化都是使用的空格，需要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: { should always be on a new line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Epic has a long standing usage pattern of putting braces on a new line.
+  if '{' in line and not re.match(r'^\s*{', line):
+    # ignore lambda and brace initialization
+    if (not re.search(r'^[^{};]*\[[^\[\]]*\][^{}]*\{[^{}\n\r]*\}', line) and
+        not re.search(r'\{[^{}]*\}', line)):
+      error(filename, linenum, 'whitespace/braces', 4,
+            '{ should almost always be at the end of the previous line')
+            '{ should always be on a new line')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Always include braces in single-statement blocks.
+  if re.search(r'^\s*(if|for|while|else)\s*\(.*\)\s*$', line):
+    next_line = clean_lines.elided[linenum + 1].strip() if linenum + 1 &lt; len(clean_lines.elided) else ''
+    if not re.match(r'^\s*{', next_line):
+      error(filename, linenum, 'readability/braces', 4,
+            'Single statement blocks should use braces')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Single statement blocks should use braces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花括号单独新行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单语句执行块需要大括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the rules related to else braces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：
+  # An else clause should be on the same line as the preceding closing brace.
+  if last_wrong := re.match(r'\s*else\b\s*(?:if\b|\{|$)', line):
+    prevline = GetPreviousNonBlankLine(clean_lines, linenum)[0]
+    if re.match(r'\s*}\s*$', prevline):
+      error(filename, linenum, 'whitespace/newline', 4,
+            'An else should appear on the same line as the preceding }')
+    else:
+      last_wrong = False
+  # If braces come on one side of an else, they should be on both.
+  # However, we have to worry about "else if" that spans multiple lines!
+  if re.search(r'else if\s*\(', line):       # could be multi-line if
+    brace_on_left = bool(re.search(r'}\s*else if\s*\(', line))
+    # find the ( after the if
+    pos = line.find('else if')
+    pos = line.find('(', pos)
+    if pos &gt; 0:
+      (endline, _, endpos) = CloseExpression(clean_lines, linenum, pos)
+      brace_on_right = endline[endpos:].find('{') != -1
+      if brace_on_left != brace_on_right:    # must be brace after if
+        error(filename, linenum, 'readability/braces', 5,
+              'If an else has a brace on one side, it should have it on both')
+  # Prevent detection if statement has { and we detected an improper newline after }
+  elif re.search(r'}\s*else[^{]*$', line) or (re.match(r'[^}]*else\s*{', line) and not last_wrong):
+    error(filename, linenum, 'readability/braces', 5,
+          'If an else has a brace on one side, it should have it on both')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：} 与 else 同行
+删除：} else [if] { 左右括号匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Rename cpplint to UnrealCppLint.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更名到 UnrealCppLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: We don't care weather the previous line end with a spaces when line start with {.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Add start with '\s' case here,
+  # in a new line we don't care weather the previous line end with a spaces.
+  # Keep this detection as there is a possibility of matching in the constructor
+  match = re.match(r'^(.*[^ ({&gt;\s]){', line)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了个 \s，保留这个检测是因为空构造函数是需要这一检测的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测 { 前缺少空格的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Make sure else in a new line.
+  if re.search(r'}[ \s]*else', line):
+    error(filename, linenum, 'whitespace/braces', 5,
+          'else should always be on a new line')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: else should always be on a new line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 } else 同行检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the rules of spaces between the braces and 'else'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Make sure '} else {' has spaces.
+  if re.search(r'}else', line):
+    error(filename, linenum, 'whitespace/braces', 5,
+          'Missing space before else')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为会触发非单行检测，所以移除这一项检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Use tabs, not spaces, for whitespace at the beginning of a line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Use tabs, not spaces, for whitespace at the beginning of a line.
+  if re.match(r'^[ \t]* ', line):
+    error(filename, linenum, 'whitespace/indent', 1,
+          'Use tab for indentation instead of spaces.')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否是使用 tab 缩进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：移除 } 与 else 之间存在空格的检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：移除原始的空格检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  if line.find('\t') != -1:
+    error(filename, linenum, 'whitespace/tab', 1,
+          'Tab found; better to use spaces')
+  # One or three blank spaces at the beginning of the line is weird; it's
+  # hard to reconcile that with 2-space indents.
+  # NOTE: here are the conditions rob pike used for his tests.  Mine aren't
+  # as sophisticated, but it may be worth becoming so:  RLENGTH==initial_spaces
+  # if(RLENGTH &gt; 20) complain = 0;
+  # if(match($0, " +(error|private|public|protected):")) complain = 0;
+  # if(match(prev, "&amp;&amp; *$")) complain = 0;
+  # if(match(prev, "\\|\\| *$")) complain = 0;
+  # if(match(prev, "[\",=&gt;&lt;] *$")) complain = 0;
+  # if(match($0, " &lt;&lt;")) complain = 0;
+  # if(match(prev, " +for \\(")) complain = 0;
+  # if(prevodd &amp;&amp; match(prevprev, " +for \\(")) complain = 0;
+  scope_or_label_pattern = r'\s*(?:public|private|protected|signals)(?:\s+(?:slots\s*)?)?:\s*\\?$'
+  classinfo = nesting_state.InnermostClass()
+  initial_spaces = 0
+  cleansed_line = clean_lines.elided[linenum]
+  while initial_spaces &lt; len(line) and line[initial_spaces] == ' ':
+    initial_spaces += 1
+  # There are certain situations we allow one space, notably for
+  # section labels, and also lines containing multi-line raw strings.
+  # We also don't check for lines that look like continuation lines
+  # (of lines ending in double quotes, commas, equals, or angle brackets)
+  # because the rules for how to indent those are non-trivial.
+  if (not re.search(r'[",=&gt;&lt;] *$', prev) and
+      (initial_spaces == 1 or initial_spaces == 3) and
+      not re.match(scope_or_label_pattern, cleansed_line) and
+      not (clean_lines.raw_lines[linenum] != line and
+           re.match(r'^\s*""', line))):
+    error(filename, linenum, 'whitespace/indent', 3,
+          'Weird number of spaces at line-start.  '
+          'Are you using a 2-space indent?')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the rules of weird number of spaces at line-start.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括 tab 缩进和非 2 4 个空格缩进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这应该是一个 fix，多写了一个空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  if re.search(r'}[\s]*else', line):</t>
+  </si>
+  <si>
+    <t>这应该是一个 fix，因为移除了多写的空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行大括号匹配时才空格检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: We only detect spaces when matching single line braces
+  # in a new line we don't care weather the previous line end with a spaces.
+  match = re.match(r'^(.*[^ ({&gt;\s]){.*}', line)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rider 在 Slate、注册时很多的格式化都是使用的空格，需要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE 中代码里存在单语句的 Set、Get、构造、析构等保留检测这种情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix: We only detect spaces when matching single line braces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留 todo 规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Changed the two space detections between code and comments to one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码与注释间的两个空格检测改为一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Unreal: Changed the two space detections between code and comments to one.
+    if re.sub(r'\\.', '', line[0:commentpos]).count('"') % 2 == 0:
+      # Allow one space for new scopes, two spaces otherwise:
+      if (not (re.match(r'^.*{ *//', line) and next_line_start == commentpos) and
+          ((commentpos &gt;= 1 and
+            line[commentpos-1] not in string.whitespace))):
+        error(filename, linenum, 'whitespace/comments', 2,
+              'At least one spaces is best between code and comments')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: C-style cast check ignore lambda event binding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略掉 C 风格类型转换时 lambda 的误判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Very few and not elegant, temporarily commented
+  # Ignore unused function input parameters
+  # like: void UActorModifierCoreStack::OnActorDestroyed(AActor*)
+  # if re.search(r'\b[a-zA-Z_]\w*\s*(::\s*[a-zA-Z_]\w*)?\s*\([^)]*\)\s*$', line):
+  #    return False
+  # Unreal: Ignore lambda event binding
+  # like: FEditorDelegates::BeginPIE.AddLambda([](bool)
+  lambda_pattern = r'\[.*\]\s*\([^)]*\)\s*\{?'
+  if re.search(lambda_pattern, line):
+      return False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: C-style cast check ignore unnamed input parameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略 C 风格类型转换时未命名形参的误判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Ignore unnamed input parameters
+  # like: void UActorModifierCoreStack::OnActorDestroyed(AActor*)
+  if re.search(r'\b[a-zA-Z_]\w*\s*(::\s*[a-zA-Z_]\w*)?\s*\([^)]*\)\s*$', line):
+    return False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Check redundant blank line after control statement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Always include braces in single-statement blocks.
+  if re.search(r'^\s*(if|for|while|else)\s*\(.*\)\s*$', line):
+    next_line = clean_lines.elided[linenum + 1].strip() if linenum + 1 &lt; len(clean_lines.elided) else ''
+    if IsBlankLine(next_line):
+      error(filename, linenum, 'whitespace/blank_line', 2,
+            'Redundant blank line after control statement')
+    elif not re.match(r'^\s*{', next_line):
+      error(filename, linenum, 'readability/braces', 4,
+            'Single statement blocks should use braces')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测控制语句后多余的空行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测控制语句下行紧跟大括号时，同时报错这一项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: The existing practice uses indentation in the namespace, so comment namespace indentation check.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: The existing practice uses indentation in the namespace, so comment here
+  # CheckForNamespaceIndentation(filename, nesting_state, clean_lines, line, error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：注释掉命名空间缩进的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有的实践均使用了缩进，包括嵌套命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: The override and final keywords are valid for use, and their use is strongly encouraged.
+  # CheckRedundantVirtual(filename, clean_lines, line, error)
+  # CheckRedundantOverrideOrFinal(filename, clean_lines, line, error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove redundant spaces during new line else detection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：注释掉 virtual 和 final 多余的检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE 里推荐使用，并且说现有有些不符规范，但会逐步改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the check for spaces before public, private, and protected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the check for rebundant virtual or final.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Update access control if we are inside a class/struct
+    if self.stack and isinstance(self.stack[-1], _ClassInfo):
+      classinfo = self.stack[-1]
+      access_match = re.match(
+          r'^(.*)\b(public|private|protected|signals)(\s+(?:slots\s*)?)?'
+          r':(?:[^:]|$)',
+          line)
+      if access_match:
+        classinfo.access = access_match.group(2)
+        # Check that access keywords are indented +1 space.  Skip this
+        # check if the keywords are not preceded by whitespaces.
+        indent = access_match.group(1)
+        if (len(indent) != classinfo.class_indent + 1 and
+            re.match(r'^\s*$', indent)):
+          if classinfo.is_struct:
+            parent = 'struct ' + classinfo.name
+          else:
+            parent = 'class ' + classinfo.name
+          slots = ''
+          if access_match.group(3):
+            slots = access_match.group(3)
+          error(filename, linenum, 'whitespace/indent', 3,
+                f'{access_match.group(2)}{slots}:'
+                f' should be indented +1 space inside {parent}')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：删除 public, private, and protected 前的空格检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE 中往往无缩进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix: Fix the error of bracket detection in single line statements when the control statement condition can span multiple lines.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: Always include braces in single-statement blocks.
+  if re.search(r'^\s*(if|for|while|else)\s*\(.*\)\s*$', line):
+    control_line = line.strip()
+    control_line_num = linenum
+    # Unreal: Control statement conditions may span multiple lines.
+    while control_line.count('(') != control_line.count(')') and control_line_num + 1 &lt; len(clean_lines.elided):
+      control_line_num += 1
+      control_line += ' ' + clean_lines.elided[control_line_num].strip()
+    next_line = clean_lines.elided[control_line_num + 1].strip() if control_line_num + 1 &lt; len(clean_lines.elided) else ''
+    if IsBlankLine(next_line):
+      error(filename, control_line_num + 1, 'whitespace/blank_line', 2,
+            'Redundant blank line after control statement')
+    elif not re.match(r'^\s*{', next_line) and not re.match(r'.*{\s*$', control_line):
+      error(filename, control_line_num + 1, 'readability/braces', 4,
+            'Single statement blocks should use braces')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正：控制语句有可能会有多行，修复处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：注释掉非常量入参的检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  # Unreal: In current practice, non-const reference parameters are widely used.
+  # CheckForNonConstReference(filename, clean_lines, line, nesting_state, error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feat: Remove the check for non const reference output parameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE 中很多使用了引用作为函数入参并修改内容
+'runtime/references'
+业务也可以不注释，filter 来做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda 多行的话也需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta = 要不要加空格
+CommonLoadingScreenSettings.h:46:  Missing spaces around =  [whitespace/operators] [4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO 的规范
+ Missing username in TODO; it should look like "// TODO(my_username): Stuff."  [readability/todo] [2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备注，有一些规则可以删除，但是没有删除，方便业务调整：
+例如 public 后不能跟空行
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右小括号不换行
+LyraEditor.cpp:137:  Closing ) should be moved to the previous line  [whitespace/parens] [2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +1054,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,7 +1072,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -548,16 +1095,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,11 +1175,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,6 +1218,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2885375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B7C986-680E-27AD-18D9-17EF32BBE852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13287375" y="619125"/>
+          <a:ext cx="5600000" cy="2314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,802 +1531,1119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC477204-EF6E-4062-A97C-AC30FA36BBE9}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="77" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="2"/>
+    <col min="4" max="4" width="54.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="41.125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="129.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="35.25" style="3"/>
+    <col min="1" max="1" width="23.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="129.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="35.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="7" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="342" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="342" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A24"/>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/RulesDiff.xlsx
+++ b/Doc/RulesDiff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WXDDevelopment\Tools\UnrealCppLint\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Other_Project\UnrealCppLint\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A7B27-4F5C-4C05-BDC2-55E307489046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA4225-ECFA-4215-BC34-319FF2CCD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5590" yWindow="2600" windowWidth="22990" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changedlog" sheetId="2" r:id="rId1"/>
@@ -1225,15 +1225,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>650875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2885375</xdr:colOff>
+      <xdr:colOff>2809175</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152111</xdr:rowOff>
+      <xdr:rowOff>183861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13287375" y="619125"/>
-          <a:ext cx="5600000" cy="2314286"/>
+          <a:off x="13204825" y="650875"/>
+          <a:ext cx="5600000" cy="2301586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,20 +1534,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC477204-EF6E-4062-A97C-AC30FA36BBE9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="41.08203125" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.08203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="77" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="2"/>
+    <col min="3" max="3" width="41.08203125" style="2"/>
     <col min="4" max="4" width="54.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="41.125" style="16"/>
+    <col min="5" max="16384" width="41.08203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>108</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>114</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>118</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>136</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>135</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>137</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>143</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>144</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>151</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>161</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>165</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>169</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>178</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>179</v>
       </c>
@@ -1838,25 +1838,25 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.25" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.25" style="12" customWidth="1"/>
     <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="52" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="129.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.08203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="129.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="35.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="8"/>
       <c r="C1" s="5" t="s">
@@ -1879,7 +1879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="18" t="s">
         <v>57</v>
@@ -1948,7 +1948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="18"/>
       <c r="C5" s="6" t="s">
@@ -1965,7 +1965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="18" t="s">
         <v>61</v>
@@ -1987,7 +1987,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
@@ -2002,7 +2002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="18" t="s">
         <v>62</v>
@@ -2019,7 +2019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
@@ -2032,7 +2032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -2041,7 +2041,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -2050,7 +2050,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -2085,7 +2085,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -2109,7 +2109,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>43</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="9"/>
       <c r="C35" s="6" t="s">
@@ -2263,7 +2263,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="9"/>
       <c r="C36" s="6" t="s">
@@ -2274,7 +2274,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>51</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="6" t="s">
@@ -2335,7 +2335,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
@@ -2344,7 +2344,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="308" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>65</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7" ht="342" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="322" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>67</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>69</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="322" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>71</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="9"/>
       <c r="C47" s="6" t="s">
@@ -2407,7 +2407,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6" t="s">
@@ -2418,7 +2418,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="9"/>
       <c r="C49" s="6" t="s">
@@ -2429,7 +2429,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="9"/>
       <c r="C50" s="6" t="s">
@@ -2440,7 +2440,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>77</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="9"/>
       <c r="C52" s="6" t="s">
@@ -2464,7 +2464,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6" t="s">
@@ -2475,7 +2475,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="9"/>
       <c r="C54" s="6" t="s">
@@ -2486,7 +2486,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="9"/>
       <c r="C55" s="6" t="s">
@@ -2497,7 +2497,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>83</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="9"/>
       <c r="C57" s="6" t="s">
@@ -2521,7 +2521,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>24</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>25</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="9"/>
       <c r="C66" s="6"/>
@@ -2618,7 +2618,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="9"/>
       <c r="C67" s="6"/>
@@ -2627,7 +2627,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="9"/>
       <c r="C68" s="6"/>
